--- a/data/Primary/PDX_metadata.xlsx
+++ b/data/Primary/PDX_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\MDA_Helen PiwnicaWorms\TNBC-PGx-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rpowell\Documents\GitHub\TNBC-PGx\data\Primary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F0170-95CC-4820-AB59-9E4E490C1923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD5178A-240C-4E56-8740-CC3843443B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="135" windowWidth="21840" windowHeight="38040" xr2:uid="{A5E766F2-AB79-4365-8BB2-041B51623704}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A5E766F2-AB79-4365-8BB2-041B51623704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="81">
   <si>
     <t>PIM046</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>TNBCtype4</t>
+  </si>
+  <si>
+    <t>dAUC_outlier</t>
   </si>
 </sst>
 </file>
@@ -1482,9 +1485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1522,7 +1525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1628,7 +1631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1770,7 +1773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1778,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3663971D-F71B-4DE7-95CA-EFC9AF4A6670}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,10 +1798,11 @@
     <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="17" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="17"/>
+    <col min="11" max="11" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1829,8 +1833,11 @@
       <c r="J1" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1856,8 +1863,11 @@
       <c r="J2" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1886,8 +1896,11 @@
       <c r="J3" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1916,8 +1929,11 @@
       <c r="J4" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1946,8 +1962,11 @@
       <c r="J5" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1978,8 +1997,11 @@
       <c r="J6" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2010,8 +2032,11 @@
       <c r="J7" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2037,8 +2062,11 @@
       <c r="J8" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -2064,8 +2092,11 @@
       <c r="J9" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2091,8 +2122,11 @@
       <c r="J10" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2118,8 +2152,11 @@
       <c r="J11" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -2145,8 +2182,11 @@
       <c r="J12" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2172,8 +2212,11 @@
       <c r="J13" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -2199,8 +2242,11 @@
       <c r="J14" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2231,8 +2277,11 @@
       <c r="J15" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2263,8 +2312,11 @@
       <c r="J16" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -2290,8 +2342,11 @@
       <c r="J17" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2317,8 +2372,11 @@
       <c r="J18" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -2349,8 +2407,11 @@
       <c r="J19" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2381,8 +2442,11 @@
       <c r="J20" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2411,8 +2475,11 @@
       <c r="J21" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2441,8 +2508,11 @@
       <c r="J22" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2473,8 +2543,11 @@
       <c r="J23" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -2505,8 +2578,11 @@
       <c r="J24" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2535,8 +2611,11 @@
       <c r="J25" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2565,8 +2644,11 @@
       <c r="J26" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -2595,8 +2677,11 @@
       <c r="J27" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -2625,8 +2710,11 @@
       <c r="J28" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -2655,8 +2743,11 @@
       <c r="J29" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -2685,8 +2776,11 @@
       <c r="J30" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2715,8 +2809,11 @@
       <c r="J31" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2745,8 +2842,11 @@
       <c r="J32" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2775,8 +2875,11 @@
       <c r="J33" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -2805,8 +2908,11 @@
       <c r="J34" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -2834,6 +2940,9 @@
       </c>
       <c r="J35" s="24" t="s">
         <v>64</v>
+      </c>
+      <c r="K35" s="17" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
